--- a/report/LogisticRegression.xlsx
+++ b/report/LogisticRegression.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Giorgio/Lavoro/Polito_Magistrale/MACHINE_LEARNING_PATTER_REC/Esame/wine-quality-detection/report/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0327C730-D90A-2544-A857-AE1249165AFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{015B8AF3-DAAB-8A4D-9A74-EF6FB9B76535}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13340" yWindow="500" windowWidth="28040" windowHeight="17440" xr2:uid="{DF034D36-0A02-1048-85AB-CA17B5DC662C}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20760" xr2:uid="{DF034D36-0A02-1048-85AB-CA17B5DC662C}"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="41">
   <si>
     <t>LOGISTIC REGRESSION</t>
   </si>
@@ -88,13 +88,85 @@
   </si>
   <si>
     <t>0.383</t>
+  </si>
+  <si>
+    <t>MIN DCF</t>
+  </si>
+  <si>
+    <t>pi = 0.5</t>
+  </si>
+  <si>
+    <t>pi = 0.1</t>
+  </si>
+  <si>
+    <t>pi = 0.9</t>
+  </si>
+  <si>
+    <t>0.821</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.710</t>
+  </si>
+  <si>
+    <t>0.830</t>
+  </si>
+  <si>
+    <t>0.355</t>
+  </si>
+  <si>
+    <t>0.858</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.643</t>
+  </si>
+  <si>
+    <t>0.660</t>
+  </si>
+  <si>
+    <t>RAW</t>
+  </si>
+  <si>
+    <t>GAUSSIANIZED</t>
+  </si>
+  <si>
+    <t>0.788</t>
+  </si>
+  <si>
+    <t>0.899</t>
+  </si>
+  <si>
+    <t>0.857</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.742</t>
+  </si>
+  <si>
+    <t>0.894</t>
+  </si>
+  <si>
+    <t>0.374</t>
+  </si>
+  <si>
+    <t>0.687</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -126,16 +198,36 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="2"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -143,11 +235,91 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -156,6 +328,26 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -184,9 +376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>810754</xdr:colOff>
+      <xdr:colOff>241122</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>113585</xdr:rowOff>
+      <xdr:rowOff>45852</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -228,9 +420,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>788737</xdr:colOff>
+      <xdr:colOff>788738</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>137773</xdr:rowOff>
+      <xdr:rowOff>70040</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -271,10 +463,10 @@
       <xdr:rowOff>57293</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>817383</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>3280</xdr:colOff>
       <xdr:row>21</xdr:row>
-      <xdr:rowOff>97398</xdr:rowOff>
+      <xdr:rowOff>29665</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -316,7 +508,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>801414</xdr:colOff>
+      <xdr:colOff>231782</xdr:colOff>
       <xdr:row>39</xdr:row>
       <xdr:rowOff>26277</xdr:rowOff>
     </xdr:to>
@@ -360,7 +552,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>801414</xdr:colOff>
+      <xdr:colOff>801415</xdr:colOff>
       <xdr:row>38</xdr:row>
       <xdr:rowOff>157655</xdr:rowOff>
     </xdr:to>
@@ -441,23 +633,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>20320</xdr:colOff>
-      <xdr:row>40</xdr:row>
-      <xdr:rowOff>111760</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>778934</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>792480</xdr:colOff>
-      <xdr:row>55</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>208478</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>175128</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Immagine 8">
+        <xdr:cNvPr id="11" name="Immagine 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0C347CF9-23F7-5340-B5CE-D427753AB5D8}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3C4577EC-6EAA-EF47-BA2E-475CCAD945B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -473,8 +665,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5374640" y="9032240"/>
-          <a:ext cx="4064000" cy="3048000"/>
+          <a:off x="18745201" y="1778000"/>
+          <a:ext cx="4069277" cy="3070728"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -485,23 +677,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>22883</xdr:colOff>
-      <xdr:row>57</xdr:row>
-      <xdr:rowOff>22883</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>33866</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>16933</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>791748</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>187640</xdr:rowOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>311666</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>164756</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="10" name="Immagine 9">
+        <xdr:cNvPr id="12" name="Immagine 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B467AA53-D704-394D-A4CD-ED0421BA4EF6}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B39A886-CC33-7941-B519-06BE732B325B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -517,8 +709,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5377478" y="12562703"/>
-          <a:ext cx="4064000" cy="3048000"/>
+          <a:off x="18829866" y="6722533"/>
+          <a:ext cx="4087800" cy="3009557"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -827,28 +1019,52 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FADFF9A9-63F9-D646-97F5-374C7C9483F9}">
-  <dimension ref="B3:N65"/>
+  <dimension ref="A3:AB45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A35" zoomScale="136" workbookViewId="0">
-      <selection activeCell="J73" sqref="J73"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="Z14" sqref="Z14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="10.83203125" style="2"/>
     <col min="2" max="2" width="48.6640625" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="10.83203125" style="2"/>
+    <col min="3" max="3" width="10.83203125" style="2"/>
+    <col min="4" max="4" width="29" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.83203125" style="2"/>
+    <col min="6" max="6" width="4.83203125" style="2" customWidth="1"/>
+    <col min="7" max="7" width="6" style="2" customWidth="1"/>
+    <col min="8" max="8" width="5.5" style="2" customWidth="1"/>
+    <col min="9" max="19" width="10.83203125" style="2"/>
+    <col min="20" max="20" width="39.1640625" style="2" customWidth="1"/>
+    <col min="21" max="23" width="10.83203125" style="2"/>
+    <col min="24" max="24" width="34.1640625" style="2" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:14" ht="37" x14ac:dyDescent="0.45">
+    <row r="3" spans="2:28" ht="37" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="T3" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="U3" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="U4" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" x14ac:dyDescent="0.2">
       <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:14" ht="37" x14ac:dyDescent="0.45">
+      <c r="U5" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="2:28" ht="37" x14ac:dyDescent="0.45">
       <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
@@ -861,13 +1077,139 @@
       <c r="N6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="7" spans="2:14" x14ac:dyDescent="0.2">
+      <c r="U6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="X6" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y6"/>
+      <c r="Z6"/>
+      <c r="AA6"/>
+      <c r="AB6"/>
+    </row>
+    <row r="7" spans="2:28" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="24" spans="2:14" ht="37" x14ac:dyDescent="0.45">
+      <c r="X7"/>
+      <c r="Z7" t="s">
+        <v>20</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X8" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z8"/>
+      <c r="AA8"/>
+      <c r="AB8"/>
+    </row>
+    <row r="9" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X9" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z9" s="20" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB9" s="10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X10" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z10" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA10" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB10" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z11" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA11" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="AB11" s="22" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="12" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X12"/>
+      <c r="Z12"/>
+      <c r="AA12"/>
+      <c r="AB12"/>
+    </row>
+    <row r="13" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X13" s="7" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z13"/>
+      <c r="AA13"/>
+      <c r="AB13"/>
+    </row>
+    <row r="14" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X14" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="Z14" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA14" s="24" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB14" s="16" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="2:28" x14ac:dyDescent="0.2">
+      <c r="X15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z15" s="17" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA15" s="18" t="s">
+        <v>36</v>
+      </c>
+      <c r="AB15" s="19" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="16" spans="2:28" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="X16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="AB16" s="25" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="2:21" ht="37" x14ac:dyDescent="0.45">
       <c r="B24" s="4" t="s">
         <v>5</v>
       </c>
@@ -881,75 +1223,44 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="2:14" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:21" x14ac:dyDescent="0.2">
       <c r="B25" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="42" spans="2:3" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B47" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="C47" s="2" t="s">
+      <c r="T25" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U25" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B48" s="2" t="s">
+    <row r="26" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="C48" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B49" s="2" t="s">
+      <c r="U26" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="27" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C49" s="2" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B50" s="2" t="s">
+      <c r="U27" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28" spans="2:21" x14ac:dyDescent="0.2">
+      <c r="T28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="C50" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B62" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B63" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B64" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.2">
-      <c r="B65" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C65" s="2" t="s">
+      <c r="U28" s="2" t="s">
         <v>17</v>
       </c>
+    </row>
+    <row r="42" spans="1:1" ht="17" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A45" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
